--- a/avtokredit_grafik.xlsx
+++ b/avtokredit_grafik.xlsx
@@ -12,18 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="131">
   <si>
     <t>Стоимость автомашины</t>
   </si>
   <si>
-    <t>381 900 000,00 сум</t>
+    <t>321 900 000,00 сум</t>
   </si>
   <si>
     <t>Первоначальный взнос</t>
   </si>
   <si>
-    <t>30%</t>
+    <t>50%</t>
   </si>
   <si>
     <t>Годовая ставка (%)</t>
@@ -44,223 +44,367 @@
     <t>Общая выплата</t>
   </si>
   <si>
-    <t>7 425 833,33 сум</t>
-  </si>
-  <si>
-    <t>4 101 501,37 сум</t>
-  </si>
-  <si>
-    <t>11 527 334,70 сум</t>
-  </si>
-  <si>
-    <t>4 414 810,50 сум</t>
-  </si>
-  <si>
-    <t>11 840 643,84 сум</t>
-  </si>
-  <si>
-    <t>4 150 328,77 сум</t>
-  </si>
-  <si>
-    <t>11 576 162,10 сум</t>
-  </si>
-  <si>
-    <t>4 162 535,62 сум</t>
-  </si>
-  <si>
-    <t>11 588 368,95 сум</t>
-  </si>
-  <si>
-    <t>3 906 191,78 сум</t>
-  </si>
-  <si>
-    <t>11 332 025,11 сум</t>
-  </si>
-  <si>
-    <t>3 910 260,73 сум</t>
-  </si>
-  <si>
-    <t>11 336 094,06 сум</t>
-  </si>
-  <si>
-    <t>3 784 123,29 сум</t>
-  </si>
-  <si>
-    <t>11 209 956,62 сум</t>
-  </si>
-  <si>
-    <t>3 539 986,30 сум</t>
-  </si>
-  <si>
-    <t>10 965 819,63 сум</t>
-  </si>
-  <si>
-    <t>3 531 848,40 сум</t>
-  </si>
-  <si>
-    <t>10 957 681,74 сум</t>
-  </si>
-  <si>
-    <t>3 295 849,32 сум</t>
-  </si>
-  <si>
-    <t>10 721 682,65 сум</t>
-  </si>
-  <si>
-    <t>3 279 573,52 сум</t>
-  </si>
-  <si>
-    <t>10 705 406,85 сум</t>
-  </si>
-  <si>
-    <t>3 153 436,07 сум</t>
-  </si>
-  <si>
-    <t>10 579 269,41 сум</t>
-  </si>
-  <si>
-    <t>2 734 334,25 сум</t>
-  </si>
-  <si>
-    <t>10 160 167,58 сум</t>
-  </si>
-  <si>
-    <t>2 901 161,19 сум</t>
-  </si>
-  <si>
-    <t>10 326 994,52 сум</t>
-  </si>
-  <si>
-    <t>2 685 506,85 сум</t>
-  </si>
-  <si>
-    <t>10 111 340,18 сум</t>
-  </si>
-  <si>
-    <t>2 648 886,30 сум</t>
-  </si>
-  <si>
-    <t>10 074 719,63 сум</t>
-  </si>
-  <si>
-    <t>2 441 369,86 сум</t>
-  </si>
-  <si>
-    <t>9 867 203,20 сум</t>
-  </si>
-  <si>
-    <t>2 396 611,42 сум</t>
-  </si>
-  <si>
-    <t>9 822 444,75 сум</t>
-  </si>
-  <si>
-    <t>2 270 473,97 сум</t>
-  </si>
-  <si>
-    <t>9 696 307,31 сум</t>
-  </si>
-  <si>
-    <t>2 075 164,38 сум</t>
-  </si>
-  <si>
-    <t>9 500 997,72 сум</t>
-  </si>
-  <si>
-    <t>2 018 199,09 сум</t>
-  </si>
-  <si>
-    <t>9 444 032,42 сум</t>
-  </si>
-  <si>
-    <t>1 831 027,40 сум</t>
-  </si>
-  <si>
-    <t>9 256 860,73 сум</t>
-  </si>
-  <si>
-    <t>1 765 924,20 сум</t>
-  </si>
-  <si>
-    <t>9 191 757,53 сум</t>
-  </si>
-  <si>
-    <t>1 639 786,76 сум</t>
-  </si>
-  <si>
-    <t>9 065 620,09 сум</t>
-  </si>
-  <si>
-    <t>1 367 167,12 сум</t>
-  </si>
-  <si>
-    <t>8 793 000,46 сум</t>
-  </si>
-  <si>
-    <t>1 387 511,87 сум</t>
-  </si>
-  <si>
-    <t>8 813 345,21 сум</t>
-  </si>
-  <si>
-    <t>1 220 684,93 сум</t>
-  </si>
-  <si>
-    <t>8 646 518,26 сум</t>
-  </si>
-  <si>
-    <t>1 135 236,99 сум</t>
-  </si>
-  <si>
-    <t>8 561 070,32 сум</t>
-  </si>
-  <si>
-    <t>976 547,95 сум</t>
-  </si>
-  <si>
-    <t>8 402 381,28 сум</t>
-  </si>
-  <si>
-    <t>882 962,10 сум</t>
-  </si>
-  <si>
-    <t>8 308 795,43 сум</t>
-  </si>
-  <si>
-    <t>756 824,66 сум</t>
-  </si>
-  <si>
-    <t>8 182 657,99 сум</t>
-  </si>
-  <si>
-    <t>610 342,47 сум</t>
-  </si>
-  <si>
-    <t>8 036 175,80 сум</t>
-  </si>
-  <si>
-    <t>504 549,77 сум</t>
-  </si>
-  <si>
-    <t>7 930 383,11 сум</t>
-  </si>
-  <si>
-    <t>366 205,48 сум</t>
-  </si>
-  <si>
-    <t>7 792 038,81 сум</t>
-  </si>
-  <si>
-    <t>252 274,89 сум</t>
-  </si>
-  <si>
-    <t>7 678 108,22 сум</t>
-  </si>
-  <si>
-    <t>126 137,44 сум</t>
-  </si>
-  <si>
-    <t>7 551 970,78 сум</t>
+    <t>1 794 820,72 сум</t>
+  </si>
+  <si>
+    <t>2 469 369,86 сум</t>
+  </si>
+  <si>
+    <t>4 264 190,58 сум</t>
+  </si>
+  <si>
+    <t>1 560 732,74 сум</t>
+  </si>
+  <si>
+    <t>2 703 457,84 сум</t>
+  </si>
+  <si>
+    <t>1 673 596,94 сум</t>
+  </si>
+  <si>
+    <t>2 590 593,64 сум</t>
+  </si>
+  <si>
+    <t>1 615 672,04 сум</t>
+  </si>
+  <si>
+    <t>2 648 518,54 сум</t>
+  </si>
+  <si>
+    <t>1 727 667,12 сум</t>
+  </si>
+  <si>
+    <t>2 536 523,47 сум</t>
+  </si>
+  <si>
+    <t>1 672 463,01 сум</t>
+  </si>
+  <si>
+    <t>2 591 727,57 сум</t>
+  </si>
+  <si>
+    <t>1 700 871,97 сум</t>
+  </si>
+  <si>
+    <t>2 563 318,61 сум</t>
+  </si>
+  <si>
+    <t>1 811 519,21 сум</t>
+  </si>
+  <si>
+    <t>2 452 671,38 сум</t>
+  </si>
+  <si>
+    <t>1 760 534,51 сум</t>
+  </si>
+  <si>
+    <t>2 503 656,08 сум</t>
+  </si>
+  <si>
+    <t>1 870 237,90 сум</t>
+  </si>
+  <si>
+    <t>2 393 952,69 сум</t>
+  </si>
+  <si>
+    <t>1 822 207,90 сум</t>
+  </si>
+  <si>
+    <t>2 441 982,68 сум</t>
+  </si>
+  <si>
+    <t>1 853 160,47 сум</t>
+  </si>
+  <si>
+    <t>2 411 030,11 сум</t>
+  </si>
+  <si>
+    <t>2 114 918,02 сум</t>
+  </si>
+  <si>
+    <t>2 149 272,57 сум</t>
+  </si>
+  <si>
+    <t>1 920 563,45 сум</t>
+  </si>
+  <si>
+    <t>2 343 627,13 сум</t>
+  </si>
+  <si>
+    <t>2 027 735,23 сум</t>
+  </si>
+  <si>
+    <t>2 236 455,35 сум</t>
+  </si>
+  <si>
+    <t>1 987 630,44 сум</t>
+  </si>
+  <si>
+    <t>2 276 560,14 сум</t>
+  </si>
+  <si>
+    <t>2 093 741,24 сум</t>
+  </si>
+  <si>
+    <t>2 170 449,34 сум</t>
+  </si>
+  <si>
+    <t>2 056 957,85 сум</t>
+  </si>
+  <si>
+    <t>2 207 232,73 сум</t>
+  </si>
+  <si>
+    <t>2 091 897,96 сум</t>
+  </si>
+  <si>
+    <t>2 172 292,63 сум</t>
+  </si>
+  <si>
+    <t>2 196 359,28 сум</t>
+  </si>
+  <si>
+    <t>2 067 831,31 сум</t>
+  </si>
+  <si>
+    <t>2 164 739,59 сум</t>
+  </si>
+  <si>
+    <t>2 099 451,00 сум</t>
+  </si>
+  <si>
+    <t>2 268 048,57 сум</t>
+  </si>
+  <si>
+    <t>1 996 142,01 сум</t>
+  </si>
+  <si>
+    <t>2 240 036,26 сум</t>
+  </si>
+  <si>
+    <t>2 024 154,32 сум</t>
+  </si>
+  <si>
+    <t>2 278 086,19 сум</t>
+  </si>
+  <si>
+    <t>1 986 104,39 сум</t>
+  </si>
+  <si>
+    <t>2 505 241,30 сум</t>
+  </si>
+  <si>
+    <t>1 758 949,28 сум</t>
+  </si>
+  <si>
+    <t>2 359 337,23 сум</t>
+  </si>
+  <si>
+    <t>1 904 853,35 сум</t>
+  </si>
+  <si>
+    <t>2 459 567,74 сум</t>
+  </si>
+  <si>
+    <t>1 804 622,84 сум</t>
+  </si>
+  <si>
+    <t>2 441 192,61 сум</t>
+  </si>
+  <si>
+    <t>1 822 997,98 сум</t>
+  </si>
+  <si>
+    <t>2 540 128,19 сум</t>
+  </si>
+  <si>
+    <t>1 724 062,40 сум</t>
+  </si>
+  <si>
+    <t>2 525 806,82 сум</t>
+  </si>
+  <si>
+    <t>1 738 383,76 сум</t>
+  </si>
+  <si>
+    <t>2 568 710,94 сум</t>
+  </si>
+  <si>
+    <t>1 695 479,65 сум</t>
+  </si>
+  <si>
+    <t>2 665 629,22 сум</t>
+  </si>
+  <si>
+    <t>1 598 561,37 сум</t>
+  </si>
+  <si>
+    <t>2 657 623,02 сум</t>
+  </si>
+  <si>
+    <t>1 606 567,57 сум</t>
+  </si>
+  <si>
+    <t>2 753 134,73 сум</t>
+  </si>
+  <si>
+    <t>1 511 055,85 сум</t>
+  </si>
+  <si>
+    <t>2 749 531,78 сум</t>
+  </si>
+  <si>
+    <t>1 514 658,80 сум</t>
+  </si>
+  <si>
+    <t>2 796 236,16 сум</t>
+  </si>
+  <si>
+    <t>1 467 954,43 сум</t>
+  </si>
+  <si>
+    <t>2 981 197,42 сум</t>
+  </si>
+  <si>
+    <t>1 282 993,17 сум</t>
+  </si>
+  <si>
+    <t>2 894 373,38 сум</t>
+  </si>
+  <si>
+    <t>1 369 817,20 сум</t>
+  </si>
+  <si>
+    <t>2 986 139,78 сум</t>
+  </si>
+  <si>
+    <t>1 278 050,81 сум</t>
+  </si>
+  <si>
+    <t>2 994 261,55 сум</t>
+  </si>
+  <si>
+    <t>1 269 929,03 сум</t>
+  </si>
+  <si>
+    <t>3 084 447,74 сум</t>
+  </si>
+  <si>
+    <t>1 179 742,84 сум</t>
+  </si>
+  <si>
+    <t>3 097 516,34 сум</t>
+  </si>
+  <si>
+    <t>1 166 674,24 сум</t>
+  </si>
+  <si>
+    <t>3 150 131,69 сум</t>
+  </si>
+  <si>
+    <t>1 114 058,90 сум</t>
+  </si>
+  <si>
+    <t>3 237 852,06 сум</t>
+  </si>
+  <si>
+    <t>1 026 338,53 сум</t>
+  </si>
+  <si>
+    <t>3 258 639,90 сум</t>
+  </si>
+  <si>
+    <t>1 005 550,68 сум</t>
+  </si>
+  <si>
+    <t>3 344 643,70 сум</t>
+  </si>
+  <si>
+    <t>919 546,88 сум</t>
+  </si>
+  <si>
+    <t>3 370 805,27 сум</t>
+  </si>
+  <si>
+    <t>893 385,32 сум</t>
+  </si>
+  <si>
+    <t>3 428 062,78 сум</t>
+  </si>
+  <si>
+    <t>836 127,80 сум</t>
+  </si>
+  <si>
+    <t>3 561 573,31 сум</t>
+  </si>
+  <si>
+    <t>702 617,27 сум</t>
+  </si>
+  <si>
+    <t>3 546 790,85 сум</t>
+  </si>
+  <si>
+    <t>717 399,74 сум</t>
+  </si>
+  <si>
+    <t>3 628 236,19 сум</t>
+  </si>
+  <si>
+    <t>635 954,40 сум</t>
+  </si>
+  <si>
+    <t>3 668 668,02 сум</t>
+  </si>
+  <si>
+    <t>595 522,57 сум</t>
+  </si>
+  <si>
+    <t>3 748 185,30 сум</t>
+  </si>
+  <si>
+    <t>516 005,29 сум</t>
+  </si>
+  <si>
+    <t>3 794 652,92 сум</t>
+  </si>
+  <si>
+    <t>469 537,66 сум</t>
+  </si>
+  <si>
+    <t>3 859 110,04 сум</t>
+  </si>
+  <si>
+    <t>405 080,54 сум</t>
+  </si>
+  <si>
+    <t>3 935 614,58 сум</t>
+  </si>
+  <si>
+    <t>328 576,00 сум</t>
+  </si>
+  <si>
+    <t>3 991 513,58 сум</t>
+  </si>
+  <si>
+    <t>272 677,00 сум</t>
+  </si>
+  <si>
+    <t>4 065 923,54 сум</t>
+  </si>
+  <si>
+    <t>198 267,05 сум</t>
+  </si>
+  <si>
+    <t>4 128 379,64 сум</t>
+  </si>
+  <si>
+    <t>135 810,94 сум</t>
+  </si>
+  <si>
+    <t>4 198 505,54 сум</t>
+  </si>
+  <si>
+    <t>65 685,04 сум</t>
   </si>
 </sst>
 </file>
@@ -352,7 +496,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>36.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="7">
@@ -388,13 +532,13 @@
         <v>2.0</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -402,13 +546,13 @@
         <v>3.0</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -416,13 +560,13 @@
         <v>4.0</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -430,13 +574,13 @@
         <v>5.0</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -444,13 +588,13 @@
         <v>6.0</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -458,13 +602,13 @@
         <v>7.0</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
@@ -472,13 +616,13 @@
         <v>8.0</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -486,13 +630,13 @@
         <v>9.0</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
@@ -500,13 +644,13 @@
         <v>10.0</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
@@ -514,13 +658,13 @@
         <v>11.0</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
@@ -528,13 +672,13 @@
         <v>12.0</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
@@ -542,13 +686,13 @@
         <v>13.0</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
@@ -556,13 +700,13 @@
         <v>14.0</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -570,13 +714,13 @@
         <v>15.0</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
@@ -584,13 +728,13 @@
         <v>16.0</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
@@ -598,13 +742,13 @@
         <v>17.0</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
@@ -612,13 +756,13 @@
         <v>18.0</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -626,13 +770,13 @@
         <v>19.0</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
@@ -640,13 +784,13 @@
         <v>20.0</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
@@ -654,13 +798,13 @@
         <v>21.0</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D28" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
@@ -668,13 +812,13 @@
         <v>22.0</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D29" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
@@ -682,13 +826,13 @@
         <v>23.0</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
@@ -696,13 +840,13 @@
         <v>24.0</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D31" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
@@ -710,13 +854,13 @@
         <v>25.0</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D32" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
@@ -724,13 +868,13 @@
         <v>26.0</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D33" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
@@ -738,13 +882,13 @@
         <v>27.0</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D34" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
@@ -752,13 +896,13 @@
         <v>28.0</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D35" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36">
@@ -766,13 +910,13 @@
         <v>29.0</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D36" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
@@ -780,13 +924,13 @@
         <v>30.0</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="C37" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
@@ -794,13 +938,13 @@
         <v>31.0</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D38" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39">
@@ -808,13 +952,13 @@
         <v>32.0</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="C39" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D39" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40">
@@ -822,13 +966,13 @@
         <v>33.0</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D40" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
@@ -836,13 +980,13 @@
         <v>34.0</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D41" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42">
@@ -850,13 +994,13 @@
         <v>35.0</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="C42" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D42" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43">
@@ -864,13 +1008,349 @@
         <v>36.0</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D43" t="s">
-        <v>82</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" t="s">
+        <v>100</v>
+      </c>
+      <c r="D52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" t="s">
+        <v>102</v>
+      </c>
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" t="s">
+        <v>104</v>
+      </c>
+      <c r="D54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" t="s">
+        <v>106</v>
+      </c>
+      <c r="D55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" t="s">
+        <v>108</v>
+      </c>
+      <c r="D56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57" t="s">
+        <v>110</v>
+      </c>
+      <c r="D57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" t="s">
+        <v>112</v>
+      </c>
+      <c r="D58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" t="s">
+        <v>114</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" t="s">
+        <v>116</v>
+      </c>
+      <c r="D60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>117</v>
+      </c>
+      <c r="C61" t="s">
+        <v>118</v>
+      </c>
+      <c r="D61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>119</v>
+      </c>
+      <c r="C62" t="s">
+        <v>120</v>
+      </c>
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>121</v>
+      </c>
+      <c r="C63" t="s">
+        <v>122</v>
+      </c>
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>123</v>
+      </c>
+      <c r="C64" t="s">
+        <v>124</v>
+      </c>
+      <c r="D64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>125</v>
+      </c>
+      <c r="C65" t="s">
+        <v>126</v>
+      </c>
+      <c r="D65" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" t="s">
+        <v>128</v>
+      </c>
+      <c r="D66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>129</v>
+      </c>
+      <c r="C67" t="s">
+        <v>130</v>
+      </c>
+      <c r="D67" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
